--- a/auditoria_clicks.xlsx
+++ b/auditoria_clicks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,213 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>clicked</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>clicked_at</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ip</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>click_count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>enriqueochoa87@gmail.com</t>
+          <t>EDWIN 1MARQUEZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>edwinupsec1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-07-17T18:18:53.715731</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18/07/2025 17:09:19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>127.0.0.1</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EDWIN 1MARQUEZ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>edwinupsec1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18/07/2025 17:09:22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EDWIN MARQUEZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>edwinupsec@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18/07/2025 17:09:29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EDWIN MARQUEZ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>edwinupsec@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18/07/2025 17:12:37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EDWIN MARQUEZ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>edwinupsec@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18/07/2025 17:12:40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EDWIN MARQUEZ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>edwinupsec@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18/07/2025 17:12:42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
